--- a/TristanKEREVAL-patch-1/ig/StructureDefinition-prescription.xlsx
+++ b/TristanKEREVAL-patch-1/ig/StructureDefinition-prescription.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/Prescription</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/prescription</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:47:39+00:00</t>
+    <t>2024-03-27T10:49:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -719,7 +719,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/OncologyPatient)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/oncology-patient)
 </t>
   </si>
   <si>
@@ -1097,7 +1097,7 @@
     <t>CarePlan.activity.plannedActivityReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/PrescriptionItem)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/prescription-item)
 </t>
   </si>
   <si>
